--- a/data/agriculture/农林牧渔中观数据库.xlsx
+++ b/data/agriculture/农林牧渔中观数据库.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
   <si>
     <t>消费者物价指数（CPI）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,10 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>农村居民人均现金收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2、5、8、11月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -213,6 +209,50 @@
   </si>
   <si>
     <t>食用农产品价格指数-蔬菜类周环比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉猪出栏头数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0039170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每年10月27日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪肉产量累积同比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5027589</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每季度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪粮比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0113895</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农村居民人均纯收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M5462042</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -598,7 +638,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -609,7 +649,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -620,7 +660,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -631,7 +671,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -653,7 +693,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -664,7 +704,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -678,7 +718,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -697,7 +737,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -708,7 +748,7 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -719,7 +759,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -730,7 +770,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -738,65 +778,101 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
         <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
         <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
         <v>32</v>
       </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
